--- a/docs/src/datasets-especificaciones/denuncias/denuncias.xlsx
+++ b/docs/src/datasets-especificaciones/denuncias/denuncias.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,110 +379,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>denunciante_id</t>
+          <t>denuncia_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denunciante_id_tipo</t>
+          <t>denuncia_fecha</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>denunciante_nombre</t>
+          <t>denuncia_hora</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>denunciante_genero</t>
+          <t>denuncia_medio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>denunciante_edad</t>
+          <t>denuncia_lugar_radicacion</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_id</t>
+          <t>denuncia_enlace_seguimiento</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_fecha</t>
+          <t>denuncia_estado_actual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_hora</t>
+          <t>denuncia_direccion</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_medio</t>
+          <t>denuncia_latitud</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_lugar_radicacion</t>
+          <t>denuncia_longitud</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_enlace_seguimiento</t>
+          <t>denuncia_detalle</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_estado_actual</t>
+          <t>denuncia_categoria</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_direccion</t>
+          <t>denuncia_tipo</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_latitud</t>
+          <t>denuncia_subtipo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_longitud</t>
+          <t>denuncia_otra_clasificacion</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>denuncia_detalle</t>
+          <t>denuncia_fecha_ultimo_cambio</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>denuncia_categoria</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>denuncia_tipo</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>denuncia_subtipo</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>denuncia_otra_clasificacion</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>denuncia_fecha_ultimo_cambio</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>denuncia_comentario_ultimo_cambio</t>
         </is>
@@ -501,98 +476,73 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23668249</t>
+          <t>3384556</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DNI</t>
+          <t>2019-03-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lucía Sánchez</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>Página web</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3384556</t>
+          <t>https://www.bahia.gob.ar/vecinos/</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2019-03-12</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>Alsina 1600</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Página web</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>-38.705048</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-62.250596</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.bahia.gob.ar/vecinos/</t>
+          <t>Cable se encuentra colgando desde la columna de alumbrado.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Alumbrado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Alsina 1600</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-38.705048</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-62.250596</t>
-        </is>
-      </c>
+          <t>Cable Suelto</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Cable se encuentra colgando desde la columna de alumbrado.</t>
+          <t>2019-03-15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>Alumbrado</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Cable Suelto</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2019-03-15</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>Se envió equipo a reparar el cable</t>
         </is>
